--- a/contratos/contratos-4-2020.xlsx
+++ b/contratos/contratos-4-2020.xlsx
@@ -688,7 +688,7 @@
     <t>CORRALON CORMAT S.A.</t>
   </si>
   <si>
-    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA, BONASEGLA LUCIANA Y BONASEGLA SILVIO.</t>
+    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA. BONASEGLA LUCIANA Y BONASEGLA SILVIO</t>
   </si>
   <si>
     <t>BOUVET HNOS S.R.L.</t>
@@ -910,7 +910,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -940,7 +940,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>GIORGI MARCELO RAUL</t>
@@ -1303,7 +1303,7 @@
     <t>PREVISORA URUGUAY</t>
   </si>
   <si>
-    <t>CLERICE, MIGUEL ANGEL</t>
+    <t>CLERICE. MIGUEL ANGEL</t>
   </si>
   <si>
     <t>CACHI BUS</t>
@@ -1366,493 +1366,493 @@
     <t>10</t>
   </si>
   <si>
-    <t>177.399,99</t>
-  </si>
-  <si>
-    <t>72.000,00</t>
-  </si>
-  <si>
-    <t>15.762,00</t>
-  </si>
-  <si>
-    <t>23.400,00</t>
-  </si>
-  <si>
-    <t>882.000,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>690.000,00</t>
-  </si>
-  <si>
-    <t>129.517,60</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>1.078.705,00</t>
-  </si>
-  <si>
-    <t>6.098,00</t>
-  </si>
-  <si>
-    <t>1.256.771,55</t>
-  </si>
-  <si>
-    <t>312.241,00</t>
-  </si>
-  <si>
-    <t>413.620,00</t>
-  </si>
-  <si>
-    <t>7.616,00</t>
-  </si>
-  <si>
-    <t>8.060,00</t>
-  </si>
-  <si>
-    <t>39.860,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>213.670,80</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>131.772,89</t>
-  </si>
-  <si>
-    <t>15.828,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>546,00</t>
-  </si>
-  <si>
-    <t>7.646,06</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>3.663,49</t>
-  </si>
-  <si>
-    <t>29.478,50</t>
-  </si>
-  <si>
-    <t>8.396,32</t>
-  </si>
-  <si>
-    <t>2.850,60</t>
-  </si>
-  <si>
-    <t>14.404,33</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>42.397,63</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>2.290,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>29.598,32</t>
-  </si>
-  <si>
-    <t>348.810,00</t>
-  </si>
-  <si>
-    <t>87.450,00</t>
-  </si>
-  <si>
-    <t>7.070,00</t>
-  </si>
-  <si>
-    <t>81.785,00</t>
-  </si>
-  <si>
-    <t>264.288,88</t>
-  </si>
-  <si>
-    <t>17.385,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>1.240,00</t>
-  </si>
-  <si>
-    <t>6.440,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>10.350,00</t>
-  </si>
-  <si>
-    <t>41,05</t>
-  </si>
-  <si>
-    <t>29,82</t>
-  </si>
-  <si>
-    <t>37.961,22</t>
-  </si>
-  <si>
-    <t>108.000,00</t>
-  </si>
-  <si>
-    <t>9.840,00</t>
-  </si>
-  <si>
-    <t>68.290,00</t>
-  </si>
-  <si>
-    <t>31.350,00</t>
-  </si>
-  <si>
-    <t>728,00</t>
-  </si>
-  <si>
-    <t>25.774,65</t>
-  </si>
-  <si>
-    <t>295.275,39</t>
-  </si>
-  <si>
-    <t>317.007,18</t>
-  </si>
-  <si>
-    <t>24.830,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>807,00</t>
-  </si>
-  <si>
-    <t>18.794,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>13.556,00</t>
-  </si>
-  <si>
-    <t>60.766,24</t>
-  </si>
-  <si>
-    <t>10.221,12</t>
-  </si>
-  <si>
-    <t>1.680,00</t>
-  </si>
-  <si>
-    <t>27.035,00</t>
-  </si>
-  <si>
-    <t>19.600,00</t>
-  </si>
-  <si>
-    <t>820,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>4.089,00</t>
-  </si>
-  <si>
-    <t>7.199,50</t>
-  </si>
-  <si>
-    <t>56.000,01</t>
-  </si>
-  <si>
-    <t>221.540,00</t>
-  </si>
-  <si>
-    <t>167.000,00</t>
-  </si>
-  <si>
-    <t>206.300,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>52.200,00</t>
-  </si>
-  <si>
-    <t>33.500,00</t>
-  </si>
-  <si>
-    <t>83.000,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>12.300,00</t>
-  </si>
-  <si>
-    <t>112.500,00</t>
-  </si>
-  <si>
-    <t>6.446,98</t>
-  </si>
-  <si>
-    <t>17.555,98</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>15.196,00</t>
-  </si>
-  <si>
-    <t>1.285.440,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>116.136,50</t>
-  </si>
-  <si>
-    <t>169.400,00</t>
-  </si>
-  <si>
-    <t>91.299,72</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>20.150,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>30.400,00</t>
-  </si>
-  <si>
-    <t>32.513,76</t>
-  </si>
-  <si>
-    <t>8.320,00</t>
-  </si>
-  <si>
-    <t>15.700,00</t>
-  </si>
-  <si>
-    <t>3.830,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>10.900,00</t>
-  </si>
-  <si>
-    <t>3.282,00</t>
-  </si>
-  <si>
-    <t>25.182,00</t>
-  </si>
-  <si>
-    <t>19.223,82</t>
-  </si>
-  <si>
-    <t>245.634,25</t>
-  </si>
-  <si>
-    <t>6.250,00</t>
-  </si>
-  <si>
-    <t>403.265,00</t>
-  </si>
-  <si>
-    <t>145.839,62</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>33.795,00</t>
-  </si>
-  <si>
-    <t>316.378,66</t>
-  </si>
-  <si>
-    <t>7.168,00</t>
-  </si>
-  <si>
-    <t>17.977,09</t>
-  </si>
-  <si>
-    <t>16.414,43</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>20.474,70</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>312.170,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>769.369,20</t>
-  </si>
-  <si>
-    <t>1.017.000,00</t>
-  </si>
-  <si>
-    <t>447.620,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>551.740,00</t>
-  </si>
-  <si>
-    <t>607.120,00</t>
-  </si>
-  <si>
-    <t>878.780,00</t>
-  </si>
-  <si>
-    <t>857.640,00</t>
-  </si>
-  <si>
-    <t>325.050,00</t>
-  </si>
-  <si>
-    <t>884.900,95</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>142.120,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>169.500,00</t>
-  </si>
-  <si>
-    <t>1.000.000,00</t>
+    <t>177399.99</t>
+  </si>
+  <si>
+    <t>72000.00</t>
+  </si>
+  <si>
+    <t>15762.00</t>
+  </si>
+  <si>
+    <t>23400.00</t>
+  </si>
+  <si>
+    <t>882000.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>690000.00</t>
+  </si>
+  <si>
+    <t>129517.60</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>1078705.00</t>
+  </si>
+  <si>
+    <t>6098.00</t>
+  </si>
+  <si>
+    <t>1256771.55</t>
+  </si>
+  <si>
+    <t>312241.00</t>
+  </si>
+  <si>
+    <t>413620.00</t>
+  </si>
+  <si>
+    <t>7616.00</t>
+  </si>
+  <si>
+    <t>8060.00</t>
+  </si>
+  <si>
+    <t>39860.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>213670.80</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>131772.89</t>
+  </si>
+  <si>
+    <t>15828.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>546.00</t>
+  </si>
+  <si>
+    <t>7646.06</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>3663.49</t>
+  </si>
+  <si>
+    <t>29478.50</t>
+  </si>
+  <si>
+    <t>8396.32</t>
+  </si>
+  <si>
+    <t>2850.60</t>
+  </si>
+  <si>
+    <t>14404.33</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>42397.63</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>2290.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>29598.32</t>
+  </si>
+  <si>
+    <t>348810.00</t>
+  </si>
+  <si>
+    <t>87450.00</t>
+  </si>
+  <si>
+    <t>7070.00</t>
+  </si>
+  <si>
+    <t>81785.00</t>
+  </si>
+  <si>
+    <t>264288.88</t>
+  </si>
+  <si>
+    <t>17385.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>1240.00</t>
+  </si>
+  <si>
+    <t>6440.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>10350.00</t>
+  </si>
+  <si>
+    <t>41.05</t>
+  </si>
+  <si>
+    <t>29.82</t>
+  </si>
+  <si>
+    <t>37961.22</t>
+  </si>
+  <si>
+    <t>108000.00</t>
+  </si>
+  <si>
+    <t>9840.00</t>
+  </si>
+  <si>
+    <t>68290.00</t>
+  </si>
+  <si>
+    <t>31350.00</t>
+  </si>
+  <si>
+    <t>728.00</t>
+  </si>
+  <si>
+    <t>25774.65</t>
+  </si>
+  <si>
+    <t>295275.39</t>
+  </si>
+  <si>
+    <t>317007.18</t>
+  </si>
+  <si>
+    <t>24830.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>807.00</t>
+  </si>
+  <si>
+    <t>18794.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>13556.00</t>
+  </si>
+  <si>
+    <t>60766.24</t>
+  </si>
+  <si>
+    <t>10221.12</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>27035.00</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>820.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>4089.00</t>
+  </si>
+  <si>
+    <t>7199.50</t>
+  </si>
+  <si>
+    <t>56000.01</t>
+  </si>
+  <si>
+    <t>221540.00</t>
+  </si>
+  <si>
+    <t>167000.00</t>
+  </si>
+  <si>
+    <t>206300.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>52200.00</t>
+  </si>
+  <si>
+    <t>33500.00</t>
+  </si>
+  <si>
+    <t>83000.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>12300.00</t>
+  </si>
+  <si>
+    <t>112500.00</t>
+  </si>
+  <si>
+    <t>6446.98</t>
+  </si>
+  <si>
+    <t>17555.98</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>15196.00</t>
+  </si>
+  <si>
+    <t>1285440.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>116136.50</t>
+  </si>
+  <si>
+    <t>169400.00</t>
+  </si>
+  <si>
+    <t>91299.72</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>20150.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>30400.00</t>
+  </si>
+  <si>
+    <t>32513.76</t>
+  </si>
+  <si>
+    <t>8320.00</t>
+  </si>
+  <si>
+    <t>15700.00</t>
+  </si>
+  <si>
+    <t>3830.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>10900.00</t>
+  </si>
+  <si>
+    <t>3282.00</t>
+  </si>
+  <si>
+    <t>25182.00</t>
+  </si>
+  <si>
+    <t>19223.82</t>
+  </si>
+  <si>
+    <t>245634.25</t>
+  </si>
+  <si>
+    <t>6250.00</t>
+  </si>
+  <si>
+    <t>403265.00</t>
+  </si>
+  <si>
+    <t>145839.62</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>33795.00</t>
+  </si>
+  <si>
+    <t>316378.66</t>
+  </si>
+  <si>
+    <t>7168.00</t>
+  </si>
+  <si>
+    <t>17977.09</t>
+  </si>
+  <si>
+    <t>16414.43</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>20474.70</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>312170.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>769369.20</t>
+  </si>
+  <si>
+    <t>1017000.00</t>
+  </si>
+  <si>
+    <t>447620.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>551740.00</t>
+  </si>
+  <si>
+    <t>607120.00</t>
+  </si>
+  <si>
+    <t>878780.00</t>
+  </si>
+  <si>
+    <t>857640.00</t>
+  </si>
+  <si>
+    <t>325050.00</t>
+  </si>
+  <si>
+    <t>884900.95</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>142120.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>169500.00</t>
+  </si>
+  <si>
+    <t>1000000.00</t>
   </si>
 </sst>
 </file>
